--- a/data/output/FV2404_FV2310/QUOTES/15002.xlsx
+++ b/data/output/FV2404_FV2310/QUOTES/15002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="270">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="270">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -922,6 +922,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U108" totalsRowShown="0">
+  <autoFilter ref="A1:U108"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1211,7 +1241,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6438,5 +6471,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/QUOTES/15002.xlsx
+++ b/data/output/FV2404_FV2310/QUOTES/15002.xlsx
@@ -1665,7 +1665,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2379,7 +2379,7 @@
         <v>255</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2583,7 +2583,7 @@
         <v>256</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2"/>
@@ -2931,7 +2931,7 @@
         <v>257</v>
       </c>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3335,7 +3335,7 @@
         <v>259</v>
       </c>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5379,7 +5379,7 @@
         <v>265</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -5811,7 +5811,7 @@
         <v>259</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6139,7 +6139,7 @@
         <v>259</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6343,7 +6343,7 @@
         <v>259</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6547,7 +6547,7 @@
         <v>269</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N101" s="2"/>
@@ -6845,7 +6845,7 @@
         <v>259</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N103" s="2"/>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N106" s="2"/>
